--- a/week01/周报week01.xlsx
+++ b/week01/周报week01.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/star/Documents/千锋大数据/week01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/star/code练习/java/JAVA-FOUDAMATION/week01/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="0" windowWidth="24960" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="9040" yWindow="0" windowWidth="24960" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
+    <sheet name="第二周" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
   <si>
     <t>知识点</t>
     <rPh sb="0" eb="1">
@@ -1054,18 +1055,374 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 排序与查找</t>
+  </si>
+  <si>
+    <t>主要介绍了，冒泡排序和选择排序，两者的时间复杂度相同，每次都能确定一个元素到最终的位置。查找，重点是二分查找，注意前提是有序，提高了查找的效率。</t>
+  </si>
+  <si>
+    <t>面向对象初级</t>
+  </si>
+  <si>
+    <t>学习面向对象的基本原理</t>
+  </si>
+  <si>
+    <t>关键字new</t>
+  </si>
+  <si>
+    <t>1.开辟一块儿内存空间    2.将地址返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person+()其实是一个整体,是一个空参的方法.   作用:1.告诉别人我这里创建的是一个Person类型的对象  
+2.给当前对象的属性赋默认值,如果是整型:就是0 如果是引用数据类型:就是null
+</t>
+  </si>
+  <si>
+    <t>面向对象的意义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   是相对于面向过程而言，过程其实就是函数，对象是将函数和属性进行了封装。
+1. 将复杂的事情简单化。
+2.面对对象将一切的过程中的执行者，变成了指挥者
+3.面向对象思想符合人们思考习惯的一种思想
+</t>
+  </si>
+  <si>
+    <t>多个引用指向同一个对象</t>
+  </si>
+  <si>
+    <t>同一个类可以创建多个对象,对象之间没有任何关系,互不影响</t>
+  </si>
+  <si>
+    <t>类与类之间的关系</t>
+  </si>
+  <si>
+    <t>传参：将整个对象当作参数
+组合：谁拥有谁
+继承：谁是谁</t>
+  </si>
+  <si>
+    <t>匿名对象</t>
+  </si>
+  <si>
+    <t>没有名字的对象---创建出来就是垃圾,因为没有引用指向他
+作用:节省代码,节省内存</t>
+  </si>
+  <si>
+    <t>static关键字</t>
+  </si>
+  <si>
+    <t>静态方法区的特点:专门用来存放static修饰的成员,放在这里的内容他的存活时间与程序一致.</t>
+  </si>
+  <si>
+    <t>成员变量的特点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.在创建对象的时候会赋默认值
+2.可以在类中定义变量的时候,直接赋值 3.非静态的成员变量可以在除了static修饰的方法外任何地方使用.
+</t>
+  </si>
+  <si>
+    <t>成员变量和局部变量的区别</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.作用域:成员变量是整个对象.局部变量是从定义开始到所在的函数/if/for结束
+2.默认值:成员变量会有默认值,局部变量没有默认值,要想使用必须先赋值
+3.释放机制:成员变量跟对象保持一致,通过垃圾回收机制回收,局部变量使用完立即释放
+4.存放的位置:成员变量放在堆区中的对象中,局部变量放在栈区中的方法中. </t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>构造方法</t>
+  </si>
+  <si>
+    <t>对对象的属性进行初始化,如果我们自己不创建构造方法,系统会调用默认的无参构造方法</t>
+  </si>
+  <si>
+    <t>基本构成</t>
+  </si>
+  <si>
+    <t>1.没有返回值这一项    2.方法名必须与当前的类名同名</t>
+  </si>
+  <si>
+    <t>注意点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.一旦创建了自己的构造方法,就不会再去调用系统默认的构造方法
+ 2.多个构造方法之间是重载的关系</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>是一种引用数据类型,本身是一个关键字,代表的是当前的对象,保存的是当前对象的地址，当我们想在当前类的内部拿到当前对象的引用时,可以使用this</t>
+  </si>
+  <si>
+    <t>1.用来区分成员变量和局部变量
+2.可以在构造方法内部调用其他重载的构造方法,提高代码的复用性,简化代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.不能自己调用自己---死循环
+2.不能相互调用,死循环
+3.this充当构造方法时,必须放在第一行
+4.this在作为方法的时候,只能充当构造方法,不能作为其他方法
+5.this的使用范围就是当前类的内部
+</t>
+  </si>
+  <si>
+    <t>静态代码块, 优先于main
+构造代码块, 随着对象加载</t>
+  </si>
+  <si>
+    <t>封装性</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代码块</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>通过对具体属性的封装实现的.把对成员变量的访问进行私有化,通过公共的方法间接的实现访问</t>
+  </si>
+  <si>
+    <t>private关键字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private时权限修饰符，被修饰的成员支队当前类可见,  成员变量私有化，提高安全性、功能复用性、代码可读性   </t>
+  </si>
+  <si>
+    <t>通过get—set 获取改变私有成员变量的值</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>有两个类A类与B类,当他们之间产生父子关系的时候,我们称为继承</t>
+  </si>
+  <si>
+    <t>super关键字</t>
+  </si>
+  <si>
+    <t>1.对象调用方法的原理:首先会在自己的内部找这个方法,找到了直接使用,找不到会继续去父类中找。                                         2. 重写的时候,子类的同名方法会把父类的方法覆盖</t>
+  </si>
+  <si>
+    <t>1.通过super调用父类的同名方法,而且super只能调用父类的方法2.如果不是同名的方法,可以使用this调用</t>
+  </si>
+  <si>
+    <t>当我们创建构造方法的时候,如果自己不写super(),系统会自动调用</t>
+  </si>
+  <si>
+    <t>当一个子类中只有一个带参数的构造方法,只能使用带参数的,不能使用无参的.如果想使用,必须手动建立无参的构造方法</t>
+  </si>
+  <si>
+    <t>当父类中只有带参数的构造方法,子类的构造方法中就必须在第一行手动调用父类带参数的构造方法(super(参数))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fianl修饰的类代表最终，不能有子类。 final修饰成员变量，变量是终值，不能再被改变。
+final修饰的方法，不允许重写。
+</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>关键字abstract</t>
+  </si>
+  <si>
+    <t>关键字final</t>
+  </si>
+  <si>
+    <t>1.拥有抽象方法的类肯定是抽象类
+2.抽象类不一定有抽象方法
+3.抽象类不能直接创建对象，通过子类实现功能                           4.继承了抽象类的子类一定要实现抽象方法，如果不实现只能自己也变成抽象类</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>保证一个类在内存中的对象唯一性。 比如多个程序使用同一个配置信息对象时，就需要保证该对象的唯一性</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>一般接口中不写成员变量,只写方法,只写规则,又将接口称为方法列表,让java从单继承间接的实现了多继承,扩充了原来的功能</t>
+  </si>
+  <si>
+    <t>多态</t>
+  </si>
+  <si>
+    <t>父类的引用指向子类的对象,这个父类不一定是直接的父类</t>
+  </si>
+  <si>
+    <t>在编译的时候识别的是引用类型,不识别对象</t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t>可以提高代码的扩展性,使用之前定义好的功能,后面直接拿来使用,不用再创建新的方法</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>向上转型:相当于自动类型转换,从低类型到高类型  向下转型:相当于强制类型转换,从高类型到低类型</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>这是一个运算符</t>
+  </si>
+  <si>
+    <t>确定当前的对象是否是后面的类或者子类的对象,是返回true,不是false</t>
+  </si>
+  <si>
+    <t>进行容错处理,增加用户体验</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成员变量：编译和运行都参考等号的左边。
+成员方法：编译看左边，运行看右边。
+</t>
+  </si>
+  <si>
+    <t>继承与多态</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equals() </t>
+  </si>
+  <si>
+    <t>默认方法比较两个对象的地址，我们可以重写equals</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>获取对象的哈希码值，我们可以理解成是当前对象的身份证(唯一标识)</t>
+  </si>
+  <si>
+    <t>直接打印引用,默认调用的是toString()</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>getClass ()</t>
+  </si>
+  <si>
+    <t>获取当前对象的字节码文件</t>
+  </si>
+  <si>
+    <t>内部类</t>
+  </si>
+  <si>
+    <t>定义在A类里面的B类就是内部类,内部类的地位与A类的成员变量,成员方法平等,内部类也可以看做是A类的成员,成员之间可以相互调用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建内部类对象的两种方法
+1. 借用外部类的方法
+2. 直接创建对象  （外部类.内部类）
+</t>
+  </si>
+  <si>
+    <t>当方法中同时存在局部内部类与成员变量时,成员变量的使用范围就会从原来的基础上进行扩大.</t>
+  </si>
+  <si>
+    <t>局部内部类</t>
+  </si>
+  <si>
+    <t>定义在一个类方法中的匿名子类对象,属于局部内部类</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>匿名内部类(对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>创建匿名内部类对象注意点:1.匿名内部类对象必须有父类或者父接口</t>
+  </si>
+  <si>
+    <t>1.当只用到当前子类的一个实例对象的时候,定义好马上使用
+2.当不好起名字的时候
+3.可以更好的定义运行时的回调</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>作业做不完。</t>
+  </si>
+  <si>
+    <t>困难与建议</t>
+  </si>
+  <si>
+    <t>1.学习java的第二周，难度比上一周增加挺多。                       2.周五考试选择题错了很多，很多小细节没有理解到位，编程题基本都写出来了，可因为一些小地方除了错误，只得了一半的分。              3.这个星期的主要重点在学java的三大特性，封装、继承、多态。难点在于最后一天讲得匿名内部类。                                    4.上个星期说的任务管理这个星期并没没有建立起来，都在在忙着做作业，写每天的笔记。                                                 5. 继续看书《thinking in java》</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1099,6 +1456,21 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1144,7 +1516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1156,8 +1528,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1169,7 +1559,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1177,25 +1576,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+  <cellStyles count="29">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1472,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F39"/>
+    <sheetView topLeftCell="A34" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,16 +1950,16 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1533,314 +1968,314 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="160" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1849,101 +2284,101 @@
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1965,4 +2400,636 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="C53" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D2:D39"/>
+    <mergeCell ref="E2:E39"/>
+    <mergeCell ref="F2:F39"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B28:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/week01/周报week01.xlsx
+++ b/week01/周报week01.xlsx
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
